--- a/r6_operator_attackers.xlsx
+++ b/r6_operator_attackers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruffl\Dropbox\내 PC (DESKTOP-ENH4CC5)\Desktop\Rufflain\Github\DobiEmon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1442B30-6384-45DF-B8FE-3A04B0153471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05191DCE-4654-4A7B-91AF-4338146C9669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19590" yWindow="1605" windowWidth="16440" windowHeight="19305" xr2:uid="{65F4122D-3071-4124-AE78-CE1D86DF16C4}"/>
+    <workbookView xWindow="15480" yWindow="1530" windowWidth="18825" windowHeight="19305" xr2:uid="{65F4122D-3071-4124-AE78-CE1D86DF16C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Attackers" sheetId="1" r:id="rId1"/>
@@ -148,11 +148,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>NØKK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>CAPITÃO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NØKK</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,9 +225,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,13 +544,14 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -584,11 +582,11 @@
         <v>0.12295632698768197</v>
       </c>
       <c r="I1" s="3">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="J1" s="4">
         <f>I1</f>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -619,11 +617,11 @@
         <v>3.1019036954087347E-2</v>
       </c>
       <c r="I2" s="3">
-        <v>6.25E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" ref="J2:J29" si="2">I2</f>
-        <v>6.25E-2</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -654,186 +652,186 @@
         <v>2.7435610302351622E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>6.25E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>0.09</v>
       </c>
       <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3">
         <f>COUNT(B1:B29)</f>
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B4">
+        <v>238</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>17</v>
       </c>
-      <c r="C4">
-        <v>346</v>
-      </c>
-      <c r="D4">
-        <v>163</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
       <c r="F4">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>607</v>
+        <v>291</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
-        <v>6.7973124300111987E-2</v>
+        <v>3.2586786114221722E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
-        <v>3.2586786114221722E-2</v>
+        <v>2.1724524076147816E-2</v>
       </c>
       <c r="I5" s="3">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>346</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>284</v>
+        <v>607</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>3.1802911534154536E-2</v>
+        <v>6.7973124300111987E-2</v>
       </c>
       <c r="I6" s="3">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="1"/>
-        <v>2.1724524076147816E-2</v>
+        <v>3.1802911534154536E-2</v>
       </c>
       <c r="I7" s="3">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>51</v>
+        <v>469</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>339</v>
+        <v>534</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>3.7961926091825311E-2</v>
+        <v>5.9798432250839868E-2</v>
       </c>
       <c r="I8" s="3">
         <v>0.05</v>
@@ -845,637 +843,637 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>269</v>
+        <v>54</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>213</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>464</v>
+        <v>295</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>5.195968645016797E-2</v>
+        <v>3.3034714445688687E-2</v>
       </c>
       <c r="I9" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>248</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="F10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>169</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="1"/>
-        <v>5.5543113101903692E-2</v>
+        <v>1.8924972004479283E-2</v>
       </c>
       <c r="I10" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C11">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="D11">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F11">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>489</v>
+        <v>361</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>5.4759238521836506E-2</v>
+        <v>4.042553191489362E-2</v>
       </c>
       <c r="I11" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E12">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="1"/>
-        <v>2.866741321388578E-2</v>
+        <v>3.1690929451287791E-2</v>
       </c>
       <c r="I12" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F13">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="1"/>
-        <v>4.042553191489362E-2</v>
+        <v>3.7961926091825311E-2</v>
       </c>
       <c r="I13" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="C14">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>343</v>
+        <v>256</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="1"/>
-        <v>3.8409854423292276E-2</v>
+        <v>2.866741321388578E-2</v>
       </c>
       <c r="I14" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="D15">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>19</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>295</v>
+        <v>424</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="1"/>
-        <v>3.3034714445688687E-2</v>
+        <v>4.7480403135498318E-2</v>
       </c>
       <c r="I15" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="1"/>
-        <v>3.1690929451287791E-2</v>
+        <v>1.4781634938409855E-2</v>
       </c>
       <c r="I16" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="1"/>
-        <v>2.5867861142217244E-2</v>
+        <v>2.4860022396416572E-2</v>
       </c>
       <c r="I17" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="C18">
-        <v>469</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>206</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="1"/>
-        <v>5.9798432250839868E-2</v>
+        <v>2.3068309070548711E-2</v>
       </c>
       <c r="I18" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>140</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="1"/>
-        <v>4.7480403135498318E-2</v>
+        <v>1.5677491601343786E-2</v>
       </c>
       <c r="I19" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>496</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="1"/>
-        <v>1.8924972004479283E-2</v>
+        <v>5.5543113101903692E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>343</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="1"/>
-        <v>1.4781634938409855E-2</v>
+        <v>3.8409854423292276E-2</v>
       </c>
       <c r="I21" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>145</v>
+        <v>269</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="E22">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>464</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="1"/>
-        <v>2.4860022396416572E-2</v>
+        <v>5.195968645016797E-2</v>
       </c>
       <c r="I22" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="F23">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>489</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="1"/>
-        <v>2.3068309070548711E-2</v>
+        <v>5.4759238521836506E-2</v>
       </c>
       <c r="I23" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F24">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="G24" s="2">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="1"/>
-        <v>2.0828667413213885E-2</v>
+        <v>2.5867861142217244E-2</v>
       </c>
       <c r="I24" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F25">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="1"/>
-        <v>1.8141097424412094E-2</v>
+        <v>2.0828667413213885E-2</v>
       </c>
       <c r="I25" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="1"/>
-        <v>1.5677491601343786E-2</v>
+        <v>1.8141097424412094E-2</v>
       </c>
       <c r="I26" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>46</v>
@@ -1501,11 +1499,11 @@
         <v>1.1422172452407614E-2</v>
       </c>
       <c r="I27" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1536,11 +1534,11 @@
         <v>8.8465845464725645E-3</v>
       </c>
       <c r="I28" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1571,11 +1569,11 @@
         <v>2.3516237402015677E-3</v>
       </c>
       <c r="I29" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1585,16 +1583,12 @@
       </c>
       <c r="I30" s="3">
         <f>SUM(I1:I29)</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="J30" s="5">
-        <f>SUM(J1:J29)</f>
-        <v>1.0000000000000004</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H29">
-    <sortCondition descending="1" ref="H1:H29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I29">
+    <sortCondition descending="1" ref="I1:I29"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
